--- a/data/trans_orig/P70D_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Dificultad-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.590245238829654</v>
+        <v>8.590245238829656</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>8.355841001799234</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.475652568311101</v>
+        <v>8.4756525683111</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.278915072134206</v>
+        <v>8.270471004104861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.072937027943311</v>
+        <v>8.108240832102481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.280289562163478</v>
+        <v>8.29770002925863</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.829168060687062</v>
+        <v>8.827732878811682</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.569296001411185</v>
+        <v>8.594099442708181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.644938944944663</v>
+        <v>8.66488773909443</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>8.775350030781661</v>
+        <v>8.775350030781659</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.551184470856796</v>
+        <v>8.551184470856802</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>8.682441480057021</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.637137130680067</v>
+        <v>8.641047065192124</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.405878103905792</v>
+        <v>8.396289919036583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.583837107681481</v>
+        <v>8.584868408088992</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.899993596334939</v>
+        <v>8.897716277229669</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.693171553447421</v>
+        <v>8.680144570563323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.773244528343394</v>
+        <v>8.771851780025584</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8.846564802962678</v>
+        <v>8.84656480296268</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>8.665278317000148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.767042353254793</v>
+        <v>8.767042353254794</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.731544874515061</v>
+        <v>8.729179815770607</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.554435786204118</v>
+        <v>8.57376514825445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.700939135870259</v>
+        <v>8.694301996042579</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.941291689884796</v>
+        <v>8.946759978388299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.760679876374848</v>
+        <v>8.768558903257748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.839118423456247</v>
+        <v>8.837221976588717</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.696200748524111</v>
+        <v>8.703453549824925</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.682029244652416</v>
+        <v>8.678870993783974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.727844602342104</v>
+        <v>8.729655378726166</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.919210786705777</v>
+        <v>8.910665623139407</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.883133186323843</v>
+        <v>8.886430351659319</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.872627954778336</v>
+        <v>8.868441001254554</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>8.791867504507445</v>
+        <v>8.791867504507447</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8.641801787839629</v>
+        <v>8.641801787839627</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>8.726074119438108</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.72240835221452</v>
+        <v>8.723781357514977</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.577835710430369</v>
+        <v>8.570857086896911</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.682059647108069</v>
+        <v>8.680228356661962</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.853052241065921</v>
+        <v>8.856228960280371</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.703684096800119</v>
+        <v>8.697937554447082</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.771132923147741</v>
+        <v>8.769930559798819</v>
       </c>
     </row>
     <row r="19">
